--- a/eu_basynthec/sourceTest/examples/OD600-BadData.xlsx
+++ b/eu_basynthec/sourceTest/examples/OD600-BadData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21105"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24720" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
     <sheet name="openbis-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -133,15 +133,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MGP1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>JJS-MGP1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -194,7 +193,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -206,7 +205,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,7 +228,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -552,14 +551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
@@ -661,7 +660,7 @@
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -669,14 +668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -883,7 +882,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
